--- a/FileInOutOperation/src/utilities/mainPOI.xlsx
+++ b/FileInOutOperation/src/utilities/mainPOI.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="7">
   <si>
     <t/>
   </si>
